--- a/similarities/split_global/harmonic_similarity_timestamps_404.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_404.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,682 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:18.060000', '0:00:20.600000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:03:46.620000', '0:03:52.800000')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=18.06</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:14.751043', '0:00:22.738707')]</t>
+          <t>('0:01:06.920000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:47.187000', '0:00:57.707000')]</t>
+          <t>('0:04:22.920000', '0:04:29.360000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=14.751043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:07.900000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:04.514625', '0:01:27.246961')]</t>
+          <t>('0:04:31.220000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_9</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E'], ['F#:min', 'B:7', 'E']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:min', 'G', 'C'], ['D:min', 'G:7', 'C']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:16.939480', '0:00:19.795536'), ('0:00:28.479798', '0:00:31.393902')]</t>
+          <t>('0:02:34.020000', '0:02:39.240000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:30.971000', '0:01:36.810000'), ('0:01:46.710000', '0:01:52.530000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-9#t=16.93948', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-9#t=28.479798']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=90.971', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=106.71']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['G:7', 'C', 'G']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.460000', '0:00:05.060000')]</t>
+          <t>('0:00:57.600000', '0:01:00.720000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:05.746892')]</t>
+          <t>('0:01:00.006734', '0:01:08.830317')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=57.6</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=60.006734</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>jaah_27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab'], ['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['F:7', 'Bb', 'Bb:7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>['A:7', 'D', 'D:7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:25.220000', '0:00:27.170000'), ('0:00:23.910000', '0:00:25.870000')]</t>
+          <t>('0:00:20.050000', '0:00:24.880000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:10.360000'), ('0:00:54.260000', '0:01:01.020000')]</t>
+          <t>('0:00:09.820000', '0:00:17.090000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=23.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=20.05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=1.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=54.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=9.82</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
+          <t>('0:00:40.960000', '0:00:43.300000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:11.070127', '0:00:14.541510')]</t>
+          <t>('0:00:00.740000', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_53</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G', 'A:min7', 'D:7']]</t>
+          <t>['Bb:min7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Gb:maj6', 'Ab:7', 'Db', 'Eb:min7', 'Ab:7']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:40.450000', '0:00:47.850000')]</t>
+          <t>('0:00:23.575000', '0:00:34.995000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:37.750000', '0:00:42.220000')]</t>
+          <t>('0:01:06.800000', '0:01:13.560000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-53#t=40.45']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=23.575</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=37.75']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=66.8</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:08.900000', '0:00:11.160000')]</t>
+          <t>('0:01:24', '0:01:30.840000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:56.454081', '0:01:01.864331')]</t>
+          <t>('0:00:15.780000', '0:00:21.280000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=56.454081']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>isophonics_227</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D/5']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:50.160000', '0:00:52.820000')]</t>
+          <t>('0:00:23.400000', '0:00:31.320000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:31.898979', '0:00:34.035215')]</t>
+          <t>('0:00:20.045192', '0:00:25.141972')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=50.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=23.4</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=31.898979']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=20.045192</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>jaah_75</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['Db:7', 'Gb', 'E:dim7/b3']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['Eb:7', 'Ab', 'Gb:dim7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:10.360000', '0:00:18.440000'), ('0:00:21.140000', '0:00:27.920000')]</t>
+          <t>('0:00:28.079297', '0:00:33.245736')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:12.280000', '0:00:19.740000'), ('0:00:23.300000', '0:00:29.360000')]</t>
+          <t>('0:00:24.660000', '0:00:28.960000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=10.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=28.079297</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=24.66</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:20.160000', '0:01:26.120000'), ('0:01:49.520000', '0:01:54.200000')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:54.300000', '0:02:03.140000'), ('0:00:19.820000', '0:00:29.100000')]</t>
+          <t>('0:00:41.700000', '0:00:57.940000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=80.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=114.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=19.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=41.7</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:14.900000', '0:01:26.120000')]</t>
+          <t>('0:02:23.580000', '0:02:29.120000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:02:04.920000', '0:02:09.320000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:57.700000', '0:01:05.360000')]</t>
+          <t>('0:00:41.080000', '0:00:45.380000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:09.236303', '0:00:12.162018')]</t>
+          <t>('0:00:33.140000', '0:00:39.820000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=57.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=41.08</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=9.236303']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=33.14</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['G:maj', 'C:maj', 'F:7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F', 'Bb', 'Eb:7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:18.540000'), ('0:00:21.940000', '0:00:27.520000')]</t>
+          <t>('0:00:13.880000', '0:00:17.760000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:06.300000', '0:00:14.360000'), ('0:00:17.040000', '0:00:24.520000')]</t>
+          <t>('0:00:27.910918', '0:00:40.797993')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=21.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=13.88</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=6.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=27.910918</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
